--- a/flash.xlsx
+++ b/flash.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudusfqedu-my.sharepoint.com/personal/jdelcastillo_estud_usfq_edu_ec/Documents/Escritorio/Joel/USFQ/6 semestre/Organización de Computadores/Deberes/Deber4_Discos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_F25DC773A252ABDACC10482111DA41CE5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95C03456-1D27-4B97-89FF-A6A06176EB0A}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC10482111DA41CE5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5A8931F-7C33-4627-AE0F-C1B236E2F036}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18383" yWindow="1245" windowWidth="14400" windowHeight="7268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-750" windowWidth="19394" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,10 +221,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:f>Sheet1!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -239,16 +239,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>268435456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$8</c:f>
+              <c:f>Sheet1!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.1064499999999999</c:v>
                 </c:pt>
@@ -263,6 +266,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.27719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,10 +320,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:f>Sheet1!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -332,16 +338,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>268435456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:f>Sheet1!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.3958600000000001</c:v>
                 </c:pt>
@@ -356,6 +365,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.79386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>306.81799999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,7 +1460,7 @@
   <dimension ref="C1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1535,6 +1547,9 @@
       <c r="D9">
         <v>80.37</v>
       </c>
+      <c r="E9">
+        <v>306.81799999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
